--- a/10/修改-玉洁.xlsx
+++ b/10/修改-玉洁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EA0E8D-48A7-4DFD-B15E-B8E112D35038}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF30183B-DDCA-46BC-A9ED-B6F4E4C856B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="101">
   <si>
     <t>index</t>
   </si>
@@ -312,6 +312,21 @@
   </si>
   <si>
     <t>电话</t>
+  </si>
+  <si>
+    <t>异议_另约_nan_拒绝</t>
+  </si>
+  <si>
+    <t>这段时间都要{{@工作事件}}，不好接电话</t>
+  </si>
+  <si>
+    <t>医生,国企员工,作家,公司白领,个体户</t>
+  </si>
+  <si>
+    <t>不行我这段时间都要{{@工作事件}}</t>
+  </si>
+  <si>
+    <t>是否同意另约_nan_拒绝</t>
   </si>
 </sst>
 </file>
@@ -684,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2719,6 +2734,52 @@
       </c>
       <c r="G88" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>98</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
